--- a/Controle-Entregáveis-AM.xlsx
+++ b/Controle-Entregáveis-AM.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm73584\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="8595" windowHeight="7740"/>
   </bookViews>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Administração de Banco de Dados</t>
   </si>
@@ -496,12 +501,15 @@
       </rPr>
       <t>Em formato impresso, entregue na aula determinada pelo professor, conforme calendário de entregas.</t>
     </r>
+  </si>
+  <si>
+    <t>Daniel França</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -774,20 +782,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -825,9 +864,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,7 +901,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -897,7 +936,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1071,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1082,72 +1121,75 @@
     <col min="1" max="1" width="60.5703125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
     </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
     </row>
-    <row r="6" spans="1:1" ht="108" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
     </row>
-    <row r="8" spans="1:1" ht="108" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="108" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
     </row>
-    <row r="10" spans="1:1" ht="72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
     </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>55</v>
       </c>
@@ -1229,7 +1271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1653,7 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1671,7 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
